--- a/teaching/traditional_assets/database/data/philippines/philippines_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/philippines/philippines_brokerage_investment_banking.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.157</v>
+        <v>-0.017</v>
       </c>
       <c r="E2">
-        <v>0.153</v>
+        <v>0.0258</v>
       </c>
       <c r="G2">
-        <v>0.003739170086639307</v>
+        <v>0.005280456921170322</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01217378103663514</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01083691220700778</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.175</v>
+        <v>2.444</v>
       </c>
       <c r="L2">
-        <v>0.05357957136342908</v>
+        <v>0.13168812974837</v>
       </c>
       <c r="M2">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="N2">
-        <v>0.009173003802281369</v>
+        <v>0.004696205890156541</v>
       </c>
       <c r="O2">
-        <v>1.642553191489362</v>
+        <v>0.7242225859247136</v>
       </c>
       <c r="P2">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="Q2">
-        <v>0.009173003802281369</v>
+        <v>0.004696205890156541</v>
       </c>
       <c r="R2">
-        <v>1.642553191489362</v>
+        <v>0.7242225859247136</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>178.556</v>
+        <v>116.906</v>
       </c>
       <c r="V2">
-        <v>0.8486501901140684</v>
+        <v>0.3101777659856726</v>
       </c>
       <c r="W2">
-        <v>0.1056338028169014</v>
+        <v>-0.05333333333333333</v>
       </c>
       <c r="X2">
-        <v>0.05016477539475791</v>
+        <v>0.03673057250252455</v>
       </c>
       <c r="Y2">
-        <v>0.0554690274221435</v>
+        <v>-0.09006390583585788</v>
       </c>
       <c r="Z2">
-        <v>-0.5035839297788959</v>
+        <v>-0.3739698148185466</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05010961291028487</v>
+        <v>0.03669751335046647</v>
       </c>
       <c r="AC2">
-        <v>-0.05146391847995131</v>
+        <v>-0.03669751335046647</v>
       </c>
       <c r="AD2">
-        <v>85.06100000000001</v>
+        <v>92.27</v>
       </c>
       <c r="AE2">
-        <v>0.4951449093329576</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>85.55614490933296</v>
+        <v>92.27</v>
       </c>
       <c r="AG2">
-        <v>-92.99985509066703</v>
+        <v>-24.63600000000001</v>
       </c>
       <c r="AH2">
-        <v>0.2890838605008297</v>
+        <v>0.1966664535243089</v>
       </c>
       <c r="AI2">
-        <v>0.6552705141807196</v>
+        <v>0.6578966131907308</v>
       </c>
       <c r="AJ2">
-        <v>-0.7921613313381336</v>
+        <v>-0.0699361842254673</v>
       </c>
       <c r="AK2">
-        <v>1.937906562021552</v>
+        <v>-1.055346127484579</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>232.4071038251366</v>
-      </c>
-      <c r="AP2">
-        <v>-254.0979647285984</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +713,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.188</v>
+        <v>-0.017</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.075</v>
+        <v>-0.056</v>
       </c>
       <c r="L3">
-        <v>0.4166666666666667</v>
+        <v>-0.8484848484848485</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +740,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,61 +749,61 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.286</v>
+        <v>0.256</v>
       </c>
       <c r="V3">
-        <v>0.01227467811158798</v>
+        <v>0.01036437246963563</v>
       </c>
       <c r="W3">
-        <v>0.1056338028169014</v>
+        <v>-0.05333333333333333</v>
       </c>
       <c r="X3">
-        <v>0.05015935192006849</v>
+        <v>0.03667539916908493</v>
       </c>
       <c r="Y3">
-        <v>0.05547445089683292</v>
+        <v>-0.09000873250241825</v>
       </c>
       <c r="Z3">
-        <v>0.3550295857988166</v>
+        <v>0.08638743455497383</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05010901198711512</v>
+        <v>0.03667539916908493</v>
       </c>
       <c r="AC3">
-        <v>-0.05010901198711512</v>
+        <v>-0.03667539916908493</v>
       </c>
       <c r="AD3">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.225</v>
+        <v>-0.256</v>
       </c>
       <c r="AH3">
-        <v>0.002611189589486751</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.05490549054905491</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.009750812567713976</v>
+        <v>-0.01047291768941254</v>
       </c>
       <c r="AK3">
-        <v>-0.2727272727272727</v>
+        <v>-0.2091503267973856</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -835,46 +829,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.126</v>
+        <v>0.0179</v>
       </c>
       <c r="E4">
-        <v>0.153</v>
+        <v>0.0258</v>
       </c>
       <c r="G4">
-        <v>0.00354978354978355</v>
+        <v>0.005568181818181818</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01155718693218219</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008049901731235232</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>10.1</v>
+        <v>6.08</v>
       </c>
       <c r="L4">
-        <v>0.4372294372294372</v>
+        <v>0.3454545454545454</v>
       </c>
       <c r="M4">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="N4">
-        <v>0.0111819235225956</v>
+        <v>0.005253784505788068</v>
       </c>
       <c r="O4">
-        <v>0.1910891089108911</v>
+        <v>0.2911184210526316</v>
       </c>
       <c r="P4">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="Q4">
-        <v>0.0111819235225956</v>
+        <v>0.005253784505788068</v>
       </c>
       <c r="R4">
-        <v>0.1910891089108911</v>
+        <v>0.2911184210526316</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -883,67 +877,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>175.6</v>
+        <v>112.9</v>
       </c>
       <c r="V4">
-        <v>1.017381228273465</v>
+        <v>0.3351142772336005</v>
       </c>
       <c r="W4">
-        <v>0.3311475409836065</v>
+        <v>0.1804154302670623</v>
       </c>
       <c r="X4">
-        <v>0.05016477539475791</v>
+        <v>0.03673057250252455</v>
       </c>
       <c r="Y4">
-        <v>0.2809827655888487</v>
+        <v>0.1436848577645378</v>
       </c>
       <c r="Z4">
-        <v>-0.1682387704698882</v>
+        <v>-0.124031007751938</v>
       </c>
       <c r="AA4">
-        <v>-0.00135430556966644</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.05010961291028487</v>
+        <v>0.03669751335046647</v>
       </c>
       <c r="AC4">
-        <v>-0.05146391847995131</v>
+        <v>-0.03669751335046647</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AE4">
-        <v>0.4951449093329576</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.4951449093329576</v>
+        <v>0.97</v>
       </c>
       <c r="AG4">
-        <v>-175.104855090667</v>
+        <v>-111.93</v>
       </c>
       <c r="AH4">
-        <v>0.002860536091825764</v>
+        <v>0.002870926687779323</v>
       </c>
       <c r="AI4">
-        <v>0.01431255485793265</v>
+        <v>0.02696691687517376</v>
       </c>
       <c r="AJ4">
-        <v>69.9061816961384</v>
+        <v>-0.4975330044005868</v>
       </c>
       <c r="AK4">
-        <v>1.241835644439856</v>
+        <v>1.454959053685168</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>-478.4285658214946</v>
       </c>
     </row>
     <row r="5">
@@ -962,23 +950,26 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D5">
+        <v>-0.365</v>
+      </c>
       <c r="G5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>-9</v>
+        <v>-3.58</v>
       </c>
       <c r="L5">
-        <v>6.666666666666666</v>
+        <v>-4.00895856662934</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1002,55 +993,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>2.67</v>
+        <v>3.75</v>
       </c>
       <c r="V5">
-        <v>0.1841379310344828</v>
+        <v>0.2450980392156863</v>
       </c>
       <c r="W5">
-        <v>-0.4522613065326633</v>
+        <v>-0.3630831643002029</v>
       </c>
       <c r="X5">
-        <v>0.1769104282047037</v>
+        <v>0.1510258410577266</v>
       </c>
       <c r="Y5">
-        <v>-0.6291717347373671</v>
+        <v>-0.5141090053579295</v>
       </c>
       <c r="Z5">
-        <v>-0.01447721179624665</v>
+        <v>0.009758602978941962</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05802180800496178</v>
+        <v>0.04722954430850716</v>
       </c>
       <c r="AC5">
-        <v>-0.05802180800496178</v>
+        <v>-0.04722954430850716</v>
       </c>
       <c r="AD5">
-        <v>85</v>
+        <v>91.3</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>85</v>
+        <v>91.3</v>
       </c>
       <c r="AG5">
-        <v>82.33</v>
+        <v>87.55</v>
       </c>
       <c r="AH5">
-        <v>0.8542713567839196</v>
+        <v>0.8564727954971858</v>
       </c>
       <c r="AI5">
-        <v>0.8960573476702509</v>
+        <v>0.8881322957198443</v>
       </c>
       <c r="AJ5">
-        <v>0.8502530207580296</v>
+        <v>0.8512396694214877</v>
       </c>
       <c r="AK5">
-        <v>0.893046968217811</v>
+        <v>0.883897021706209</v>
       </c>
       <c r="AL5">
         <v>0</v>
